--- a/data/_ara/시설평점.xlsx
+++ b/data/_ara/시설평점.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/itnote/AppKang/app/python/colaborator/data/_ara/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE1C2BC-C6E0-1B44-A3B7-4685C700486D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B1C633-B771-2F47-B868-457929CA5F1D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="시설정보" sheetId="1" r:id="rId1"/>
+    <sheet name="시설정보 (2)" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="64">
   <si>
     <t>시설정보</t>
   </si>
@@ -213,6 +214,27 @@
   <si>
     <t>최현석</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>박물관은살아있다</t>
+  </si>
+  <si>
+    <t>서귀포도립해양공원</t>
+  </si>
+  <si>
+    <t>성산일출봉</t>
+  </si>
+  <si>
+    <t>일출랜드</t>
+  </si>
+  <si>
+    <t>카멜리아힐</t>
+  </si>
+  <si>
+    <t>퍼시픽랜드</t>
+  </si>
+  <si>
+    <t>한화아쿠아플라넷제주</t>
   </si>
 </sst>
 </file>
@@ -333,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -364,9 +386,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +397,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -695,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -707,15 +732,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25" customHeight="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
@@ -753,7 +778,7 @@
       <c r="D3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -1178,28 +1203,28 @@
       </c>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="12" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F22" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="12" t="s">
+      <c r="F22" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="8"/>
@@ -1220,7 +1245,7 @@
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="8"/>
@@ -1241,7 +1266,7 @@
       </c>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="8"/>
@@ -1262,7 +1287,7 @@
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B26" s="8"/>
@@ -1283,7 +1308,7 @@
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="8"/>
@@ -1304,7 +1329,7 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="8"/>
@@ -1325,7 +1350,7 @@
       </c>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B29" s="8"/>
@@ -1346,7 +1371,7 @@
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B30" s="8"/>
@@ -1367,7 +1392,7 @@
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B31" s="8"/>
@@ -1388,7 +1413,7 @@
       </c>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B32" s="8"/>
@@ -1409,7 +1434,7 @@
       </c>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B33" s="8"/>
@@ -1430,7 +1455,7 @@
       </c>
     </row>
     <row r="34" spans="1:7">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B34" s="8"/>
@@ -1451,7 +1476,7 @@
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B35" s="8"/>
@@ -1472,7 +1497,7 @@
       </c>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="8"/>
@@ -1493,7 +1518,7 @@
       </c>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="8"/>
@@ -1514,7 +1539,7 @@
       </c>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="8"/>
@@ -1535,7 +1560,7 @@
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="8"/>
@@ -1556,7 +1581,7 @@
       </c>
     </row>
     <row r="40" spans="1:7">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="8"/>
@@ -1583,4 +1608,484 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A03362E-849F-4F41-9D74-48BA6061DC68}">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <cols>
+    <col min="1" max="3" width="19.5" style="10" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="10" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25" customHeight="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="8">
+        <v>2</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="8">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>4</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="8">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8">
+        <v>7</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="8">
+        <v>8</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="8">
+        <v>9</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="8">
+        <v>10</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="8">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="8">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="8">
+        <v>13</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="8">
+        <v>14</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="8">
+        <v>15</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="8">
+        <v>16</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="8">
+        <v>17</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="8">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="8">
+        <v>19</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="8">
+        <v>20</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="8">
+        <v>21</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="8">
+        <v>22</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="8">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8">
+        <v>24</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" s="8">
+        <v>25</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="8">
+        <v>26</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="E29" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>